--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_9_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_9_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.206764157201257e-16</v>
+        <v>1.198621349122976e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.44138616685814</v>
+        <v>46.67452524640071</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.104149851272325, 49.778622482443964]</t>
+          <t>[44.278604055658086, 49.070446437143325]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.515763422452733, 1.6163950189641172]</t>
+          <t>[1.490605523324887, 1.5912371198362711]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.66362547534658</v>
+        <v>52.32068771904981</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.04236649619595, 52.28488445449722]</t>
+          <t>[50.687754870801356, 53.95362056729827]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.8828828828831</v>
+        <v>17.94806806806828</v>
       </c>
       <c r="X2" t="n">
-        <v>17.69213213213234</v>
+        <v>17.75763763763785</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.07363363363385</v>
+        <v>18.13849849849871</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.72000000000027</v>
+        <v>23.71000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.206764157201257e-16</v>
+        <v>1.198621349122976e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.05118300820082</v>
+        <v>47.93473820313206</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.4792771354032, 51.62308888099843]</t>
+          <t>[43.32420684418271, 52.5452695620814]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.201289683354656</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1006580868432714, 1.3019212798660398]</t>
+          <t>[1.0377633390236554, 1.2390265320464255]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.73864536226844</v>
+        <v>51.10796685800172</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.171695623391486, 55.3055951011454]</t>
+          <t>[48.59759522107552, 53.61833849492791]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.18494494494516</v>
+        <v>19.41419419419441</v>
       </c>
       <c r="X3" t="n">
-        <v>18.80504504504526</v>
+        <v>19.03445445445467</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56484484484506</v>
+        <v>19.79393393393416</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_9_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_9_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.198621349122976e-16</v>
+        <v>1.200241107702872e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.67452524640071</v>
+        <v>45.75778757174189</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.278604055658086, 49.070446437143325]</t>
+          <t>[43.3475840390495, 48.16799110443427]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 1.5912371198362711]</t>
+          <t>[1.515763422452732, 1.616395018964118]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.32068771904981</v>
+        <v>50.94792852676279</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.687754870801356, 53.95362056729827]</t>
+          <t>[49.267329075351405, 52.62852797817418]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.94806806806828</v>
+        <v>17.89039039039061</v>
       </c>
       <c r="X2" t="n">
-        <v>17.75763763763785</v>
+        <v>17.69955955955977</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.13849849849871</v>
+        <v>18.08122122122144</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.71000000000027</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.198621349122976e-16</v>
+        <v>1.200241107702872e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.93473820313206</v>
+        <v>48.01511487220503</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.32420684418271, 52.5452695620814]</t>
+          <t>[43.11842527373199, 52.91180447067808]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13839493553504</v>
+        <v>0.8490790955648091</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 1.2390265320464255]</t>
+          <t>[0.748447499053424, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>51.10796685800172</v>
+        <v>50.97877962782327</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.59759522107552, 53.61833849492791]</t>
+          <t>[48.47633401789437, 53.48122523775218]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.41419419419441</v>
+        <v>20.42810810810833</v>
       </c>
       <c r="X3" t="n">
-        <v>19.03445445445467</v>
+        <v>20.04980980981002</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.79393393393416</v>
+        <v>20.80640640640663</v>
       </c>
     </row>
   </sheetData>
